--- a/指标库.xlsx
+++ b/指标库.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\tpy\Data_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B14763-8390-45E6-B45C-61E870024E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B7AB54-FF1E-4AF8-BEA6-7D19082A6A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7860" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7860" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="economy_growth" sheetId="2" r:id="rId1"/>
@@ -19,23 +19,24 @@
     <sheet name="industry_finance" sheetId="37" r:id="rId4"/>
     <sheet name="economic_climate" sheetId="9" r:id="rId5"/>
     <sheet name="price_index" sheetId="10" r:id="rId6"/>
-    <sheet name="high_frequency_for_prediction" sheetId="46" r:id="rId7"/>
-    <sheet name="currency" sheetId="13" r:id="rId8"/>
-    <sheet name="fixed_asset_investment" sheetId="16" r:id="rId9"/>
-    <sheet name="import_and_export" sheetId="19" r:id="rId10"/>
-    <sheet name="consumption" sheetId="20" r:id="rId11"/>
-    <sheet name="bond_financing" sheetId="23" r:id="rId12"/>
-    <sheet name="interest_rate_day" sheetId="25" r:id="rId13"/>
-    <sheet name="interest_rate_month" sheetId="26" r:id="rId14"/>
-    <sheet name="unemployment" sheetId="27" r:id="rId15"/>
-    <sheet name="international_bs" sheetId="28" r:id="rId16"/>
-    <sheet name="housing" sheetId="32" r:id="rId17"/>
-    <sheet name="Sheet1" sheetId="47" r:id="rId18"/>
+    <sheet name="currency" sheetId="13" r:id="rId7"/>
+    <sheet name="fixed_asset_investment" sheetId="16" r:id="rId8"/>
+    <sheet name="import_and_export" sheetId="19" r:id="rId9"/>
+    <sheet name="consumption" sheetId="20" r:id="rId10"/>
+    <sheet name="bond_financing" sheetId="23" r:id="rId11"/>
+    <sheet name="interest_rate_day" sheetId="25" r:id="rId12"/>
+    <sheet name="interest_rate_month" sheetId="26" r:id="rId13"/>
+    <sheet name="unemployment" sheetId="27" r:id="rId14"/>
+    <sheet name="international_bs" sheetId="28" r:id="rId15"/>
+    <sheet name="housing" sheetId="32" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="47" r:id="rId17"/>
+    <sheet name="Macro_variables_month" sheetId="48" r:id="rId18"/>
+    <sheet name="high_frequency_for_prediction" sheetId="50" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="1108">
   <si>
     <t>M0048486</t>
   </si>
@@ -2440,12 +2441,6 @@
     <t>6大发电集团耗煤量:当月同比</t>
   </si>
   <si>
-    <t>日均产量:粗钢:重点企业(旬)</t>
-  </si>
-  <si>
-    <t>日均产量:生铁:重点企业(旬)</t>
-  </si>
-  <si>
     <t>G0004042</t>
   </si>
   <si>
@@ -2464,56 +2459,12 @@
     <t>S5116625</t>
   </si>
   <si>
-    <t>S5708246</t>
-  </si>
-  <si>
-    <t>S5715678</t>
-  </si>
-  <si>
-    <t>周</t>
-  </si>
-  <si>
-    <t>期货结算价(活跃合约):焦煤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合平均价格指数:环渤海动力煤(Q5500K)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>周</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0181379</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S5104570</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>期货结算价(连续):布伦特原油</t>
-  </si>
-  <si>
-    <t>期货结算价(连续):IPE英国天然气</t>
-  </si>
-  <si>
     <t>期货结算价(连续):WTI原油</t>
   </si>
   <si>
-    <t>S0031525</t>
-  </si>
-  <si>
-    <t>S0212344</t>
-  </si>
-  <si>
     <t>M0000005</t>
   </si>
   <si>
-    <t>钻机数量:美国:当周值</t>
-  </si>
-  <si>
     <t>期货结算价(活跃合约):阴极铜</t>
   </si>
   <si>
@@ -2535,9 +2486,6 @@
     <t>期货结算价(活跃合约):燃料油</t>
   </si>
   <si>
-    <t>市场价:涤纶长丝(FDY150D/96F):全国</t>
-  </si>
-  <si>
     <t>CCFEI价格指数:涤纶短纤</t>
   </si>
   <si>
@@ -2553,9 +2501,6 @@
     <t>水泥价格指数:全国</t>
   </si>
   <si>
-    <t>S5136800</t>
-  </si>
-  <si>
     <t>S0181392</t>
   </si>
   <si>
@@ -2577,9 +2522,6 @@
     <t>S0181387</t>
   </si>
   <si>
-    <t>S5914474</t>
-  </si>
-  <si>
     <t>S5435650</t>
   </si>
   <si>
@@ -2598,13 +2540,7 @@
     <t>22个省市:平均价:猪肉</t>
   </si>
   <si>
-    <t>平均价:羊肉:全国</t>
-  </si>
-  <si>
     <t>S0113892</t>
-  </si>
-  <si>
-    <t>S0143887</t>
   </si>
   <si>
     <t>期货结算价(活跃合约):菜籽油</t>
@@ -3285,6 +3221,2796 @@
     <t>M1004274</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生产资料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0068107</t>
+  </si>
+  <si>
+    <r>
+      <t>CPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>食品烟酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>畜肉类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>猪肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0085938</t>
+  </si>
+  <si>
+    <r>
+      <t>CPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>食品烟酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>畜肉类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>牛肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0062910</t>
+  </si>
+  <si>
+    <r>
+      <t>CPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>食品烟酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鲜菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0061581</t>
+  </si>
+  <si>
+    <r>
+      <t>CPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非食品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0000705</t>
+  </si>
+  <si>
+    <r>
+      <t>CPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0000708</t>
+  </si>
+  <si>
+    <r>
+      <t>CPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>衣着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0068122</t>
+  </si>
+  <si>
+    <r>
+      <t>CPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>居住</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水电燃料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0068116</t>
+  </si>
+  <si>
+    <r>
+      <t>CPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交通和通信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交通工具用燃料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0000712</t>
+  </si>
+  <si>
+    <r>
+      <t>CPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教育文化和娱乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096793</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>煤炭开采和洗选业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096794</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石油和天然气开采业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096795</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑色金属矿采选业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096799</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>农副食品加工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096811</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>石油、煤炭及其他燃料加工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096812</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化学原料及化学制品制造业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096814</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化学纤维制造业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096815</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非金属矿物制品业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096816</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑色金属冶炼及压延加工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096817</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有色金属冶炼及压延加工业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0049160</t>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全部工业品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PPI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全部工业品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PMI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主要原材料购进价格</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PMI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生产</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工业增加值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出口金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PMI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新出口订单</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>汽车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0000210</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人民币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名义有效汇率指数</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>摩根大通全球制造业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PMI</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>韩国</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出口总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>越南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0045733</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零售额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家具类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0045728</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零售额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>家用电器和音像器材类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0045741</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零售额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建筑及装潢材料类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0049200</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商品房销售面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0049232</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商品房销售面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期房</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0029670</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>房屋竣工面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073244</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>房地产开发资金来源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0073300</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商品房销售面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定资产投资完成额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0096893</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地方政府性基金支出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0046152</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公共财政支出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交通运输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0046151</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公共财政支出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>农林水事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0046150</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公共财政支出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>城乡社区事务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社会消费品零售总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S6110814</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乘用车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>狭义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零售</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月值</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社会消费品零售总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>餐饮收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0001456</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零售额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服装鞋帽针纺织品类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0073698</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>零售额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>粮油、食品类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M5201395</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>限额以上企业商品零售总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社会消费品零售总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>商品零售</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当月同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0000357</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定资产投资完成额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>制造业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0000557</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工业企业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利润总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0001440</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社会消费品零售总额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0031543</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>销量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>汽车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>累计同比</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macro_variables_month</t>
+  </si>
+  <si>
+    <t>Macro_variables_month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货结算价(活跃合约):MICEX 布伦特原油</t>
+  </si>
+  <si>
+    <t>期货结算价(活跃合约):IPE英国天然气</t>
+  </si>
+  <si>
+    <t>平均批发价:猪肉</t>
+  </si>
+  <si>
+    <t>平均批发价:牛肉</t>
+  </si>
+  <si>
+    <t>前海农产品批发价格指数:蔬菜</t>
+  </si>
+  <si>
+    <t>平均批发价:鲫鱼</t>
+  </si>
+  <si>
+    <t>平均批发价:鲤鱼</t>
+  </si>
+  <si>
+    <t>平均批发价:大带鱼</t>
+  </si>
+  <si>
+    <t>平均批发价:白鲢鱼</t>
+  </si>
+  <si>
+    <t>平均批发价:7种重点监测水果</t>
+  </si>
+  <si>
+    <t>平均批发价:鸡蛋</t>
+  </si>
+  <si>
+    <t>最高零售指导价:柴油</t>
+  </si>
+  <si>
+    <t>综合平均价格指数:环渤海动力煤(Q5500K)</t>
+  </si>
+  <si>
+    <t>期货结算价(活跃合约):焦煤</t>
+  </si>
+  <si>
+    <t>日均耗煤量:6大发电集团:合计</t>
+  </si>
+  <si>
+    <t>钻机数量:总计:美国:当周值</t>
+  </si>
+  <si>
+    <t>市场价(中间价):涤纶长丝(POY 150D/48F):国内市场</t>
+  </si>
+  <si>
+    <t>中国铁矿石价格指数(CIOPI)</t>
+  </si>
+  <si>
+    <t>36个城市平均零售价:猪肉</t>
+  </si>
+  <si>
+    <t>平均批发价:羊肉</t>
+  </si>
+  <si>
+    <t>全国主要港口:铁矿石库存:原口径(30港口)</t>
+  </si>
+  <si>
+    <t>产量:粗钢:重点企业(旬)</t>
+  </si>
+  <si>
+    <t>产量:生铁:重点企业(旬)</t>
+  </si>
+  <si>
+    <t>S0212346</t>
+  </si>
+  <si>
+    <t>S5065106</t>
+  </si>
+  <si>
+    <t>S5065107</t>
+  </si>
+  <si>
+    <t>S5049024</t>
+  </si>
+  <si>
+    <t>S5065113</t>
+  </si>
+  <si>
+    <t>S5065114</t>
+  </si>
+  <si>
+    <t>S5065116</t>
+  </si>
+  <si>
+    <t>S5065115</t>
+  </si>
+  <si>
+    <t>S5065112</t>
+  </si>
+  <si>
+    <t>S5065109</t>
+  </si>
+  <si>
+    <t>S0031523</t>
+  </si>
+  <si>
+    <t>S5104570</t>
+  </si>
+  <si>
+    <t>S0181379</t>
+  </si>
+  <si>
+    <t>S5116614</t>
+  </si>
+  <si>
+    <t>S5140384</t>
+  </si>
+  <si>
+    <t>S5440017</t>
+  </si>
+  <si>
+    <t>S5704661</t>
+  </si>
+  <si>
+    <t>S5063753</t>
+  </si>
+  <si>
+    <t>S5065108</t>
+  </si>
+  <si>
+    <t>S6400611</t>
+  </si>
+  <si>
+    <t>S5715674</t>
+  </si>
+  <si>
+    <t>S5715675</t>
+  </si>
+  <si>
+    <t>S0260035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_frequency_for_prediction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0066329</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3294,7 +6020,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="###,###,###,###,##0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -3342,6 +6068,27 @@
       <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3792,535 +6539,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3B1490-7B8E-494A-9206-552B0EBA643A}">
-  <dimension ref="A1:E30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="38.53125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B3" t="s">
-        <v>403</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>414</v>
-      </c>
-      <c r="B6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B10" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>438</v>
-      </c>
-      <c r="B12" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B13" t="s">
-        <v>421</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B14" t="s">
-        <v>422</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>441</v>
-      </c>
-      <c r="B15" t="s">
-        <v>423</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>442</v>
-      </c>
-      <c r="B16" t="s">
-        <v>424</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B17" t="s">
-        <v>425</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>444</v>
-      </c>
-      <c r="B18" t="s">
-        <v>426</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>445</v>
-      </c>
-      <c r="B19" t="s">
-        <v>427</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>446</v>
-      </c>
-      <c r="B20" t="s">
-        <v>428</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>447</v>
-      </c>
-      <c r="B21" t="s">
-        <v>429</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>448</v>
-      </c>
-      <c r="B22" t="s">
-        <v>430</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>449</v>
-      </c>
-      <c r="B23" t="s">
-        <v>431</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>450</v>
-      </c>
-      <c r="B24" t="s">
-        <v>432</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>451</v>
-      </c>
-      <c r="B25" t="s">
-        <v>433</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>452</v>
-      </c>
-      <c r="B26" t="s">
-        <v>434</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>739</v>
-      </c>
-      <c r="B27" t="s">
-        <v>731</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>740</v>
-      </c>
-      <c r="B28" t="s">
-        <v>732</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>741</v>
-      </c>
-      <c r="B29" t="s">
-        <v>733</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>743</v>
-      </c>
-      <c r="B30" t="s">
-        <v>735</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27594046-4469-4E43-81ED-1EDCA3C275DC}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -4407,7 +6625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB17981-5D2C-48FA-981B-DF4D742A4572}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -4451,7 +6669,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4468,7 +6686,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4485,7 +6703,7 @@
         <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4502,7 +6720,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4519,7 +6737,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4536,7 +6754,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4553,7 +6771,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4570,7 +6788,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4587,7 +6805,7 @@
         <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4604,7 +6822,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4621,7 +6839,7 @@
         <v>30</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4638,7 +6856,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4655,7 +6873,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4672,7 +6890,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4689,7 +6907,7 @@
         <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4706,7 +6924,7 @@
         <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -4715,11 +6933,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B1BD9F3-3A76-4806-9960-86F8C104DE40}">
   <dimension ref="A1:XFD89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
@@ -4935,10 +7153,10 @@
     </row>
     <row r="13" spans="1:16384">
       <c r="A13" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="B13" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -4952,10 +7170,10 @@
     </row>
     <row r="14" spans="1:16384">
       <c r="A14" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="B14" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -4969,10 +7187,10 @@
     </row>
     <row r="15" spans="1:16384">
       <c r="A15" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="B15" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>29</v>
@@ -21499,10 +23717,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="B24" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>29</v>
@@ -21516,10 +23734,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="B25" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
@@ -21533,10 +23751,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="B26" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>29</v>
@@ -21550,10 +23768,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="B27" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
@@ -21567,10 +23785,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="B28" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
@@ -21584,10 +23802,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="B29" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>29</v>
@@ -21601,10 +23819,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="B30" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>29</v>
@@ -21618,10 +23836,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="B31" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>29</v>
@@ -21635,10 +23853,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="B32" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>29</v>
@@ -21652,10 +23870,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="B33" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>29</v>
@@ -21669,10 +23887,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="B34" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>29</v>
@@ -21686,10 +23904,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="B35" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>29</v>
@@ -21703,10 +23921,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="B36" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>29</v>
@@ -21720,10 +23938,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="B37" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>29</v>
@@ -21737,10 +23955,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="B38" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>29</v>
@@ -21754,10 +23972,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="B39" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>29</v>
@@ -21771,10 +23989,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="B40" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>29</v>
@@ -21788,10 +24006,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="B41" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>29</v>
@@ -21805,10 +24023,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="B42" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>29</v>
@@ -21822,10 +24040,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="B43" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>29</v>
@@ -21856,10 +24074,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="B45" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>29</v>
@@ -21873,10 +24091,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="B46" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>29</v>
@@ -21890,10 +24108,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="B47" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>29</v>
@@ -21907,10 +24125,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="B48" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>29</v>
@@ -21924,10 +24142,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="B49" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>29</v>
@@ -21958,10 +24176,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="B51" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>29</v>
@@ -21975,10 +24193,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="B52" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>29</v>
@@ -21992,10 +24210,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="B53" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>29</v>
@@ -22009,7 +24227,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="B54" t="s">
         <v>550</v>
@@ -22026,10 +24244,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="B55" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>29</v>
@@ -22077,10 +24295,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="B58" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>29</v>
@@ -22094,10 +24312,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="B59" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>29</v>
@@ -22111,10 +24329,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="B60" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>29</v>
@@ -22128,10 +24346,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="B61" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>29</v>
@@ -22145,10 +24363,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="B62" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>29</v>
@@ -22179,10 +24397,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="B64" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>29</v>
@@ -22230,10 +24448,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="B67" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>29</v>
@@ -22264,10 +24482,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="B69" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>29</v>
@@ -22281,10 +24499,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="B70" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>29</v>
@@ -22298,10 +24516,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="B71" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>29</v>
@@ -22332,10 +24550,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="B73" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>29</v>
@@ -22383,10 +24601,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="B76" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>29</v>
@@ -22400,10 +24618,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="B77" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>29</v>
@@ -22417,10 +24635,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="B78" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>29</v>
@@ -22434,10 +24652,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="B79" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>29</v>
@@ -22451,10 +24669,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="B80" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>29</v>
@@ -22485,10 +24703,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="B82" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>29</v>
@@ -22536,10 +24754,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="B85" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>29</v>
@@ -22570,10 +24788,10 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="B87" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>29</v>
@@ -22587,10 +24805,10 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="B88" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>29</v>
@@ -22604,10 +24822,10 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="B89" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>29</v>
@@ -22628,7 +24846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8B7A2E-B976-4776-B6CF-832CE9A10065}">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -22937,7 +25155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20857E93-439D-4FE1-9C0C-A712657B58E9}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -23004,7 +25222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA856C4D-7BCB-4685-9A3B-1177C31EA115}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -23177,12 +25395,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189918F0-5DE8-4911-B33A-5DFEFB80AF63}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -23723,11 +25941,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EC36E3-835A-4DEA-8A33-AA01245407F6}">
   <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AK3"/>
     </sheetView>
   </sheetViews>
@@ -23744,573 +25962,2296 @@
     </row>
     <row r="2" spans="1:37">
       <c r="A2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D2" t="s">
+        <v>887</v>
+      </c>
+      <c r="E2" t="s">
+        <v>888</v>
+      </c>
+      <c r="F2" t="s">
+        <v>889</v>
+      </c>
+      <c r="G2" t="s">
+        <v>890</v>
+      </c>
+      <c r="H2" t="s">
+        <v>891</v>
+      </c>
+      <c r="I2" t="s">
+        <v>892</v>
+      </c>
+      <c r="J2" t="s">
+        <v>893</v>
+      </c>
+      <c r="K2" t="s">
+        <v>894</v>
+      </c>
+      <c r="L2" t="s">
+        <v>895</v>
+      </c>
+      <c r="M2" t="s">
+        <v>896</v>
+      </c>
+      <c r="N2" t="s">
+        <v>897</v>
+      </c>
+      <c r="O2" t="s">
+        <v>898</v>
+      </c>
+      <c r="P2" t="s">
+        <v>899</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>900</v>
+      </c>
+      <c r="R2" t="s">
+        <v>901</v>
+      </c>
+      <c r="S2" t="s">
+        <v>902</v>
+      </c>
+      <c r="T2" t="s">
+        <v>903</v>
+      </c>
+      <c r="U2" t="s">
         <v>904</v>
       </c>
-      <c r="B2" t="s">
+      <c r="V2" t="s">
         <v>905</v>
       </c>
-      <c r="C2" t="s">
+      <c r="W2" t="s">
         <v>906</v>
       </c>
-      <c r="D2" t="s">
+      <c r="X2" t="s">
         <v>907</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Y2" t="s">
         <v>908</v>
       </c>
-      <c r="F2" t="s">
+      <c r="Z2" t="s">
         <v>909</v>
       </c>
-      <c r="G2" t="s">
+      <c r="AA2" t="s">
         <v>910</v>
       </c>
-      <c r="H2" t="s">
+      <c r="AB2" t="s">
         <v>911</v>
       </c>
-      <c r="I2" t="s">
+      <c r="AC2" t="s">
         <v>912</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AD2" t="s">
         <v>913</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AE2" t="s">
         <v>914</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AF2" t="s">
         <v>915</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AG2" t="s">
         <v>916</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AH2" t="s">
         <v>917</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AI2" t="s">
         <v>918</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AJ2" t="s">
         <v>919</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AK2" t="s">
         <v>920</v>
-      </c>
-      <c r="R2" t="s">
-        <v>921</v>
-      </c>
-      <c r="S2" t="s">
-        <v>922</v>
-      </c>
-      <c r="T2" t="s">
-        <v>923</v>
-      </c>
-      <c r="U2" t="s">
-        <v>924</v>
-      </c>
-      <c r="V2" t="s">
-        <v>925</v>
-      </c>
-      <c r="W2" t="s">
-        <v>926</v>
-      </c>
-      <c r="X2" t="s">
-        <v>927</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>928</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>929</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>930</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>931</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>932</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>933</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>934</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>935</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>936</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>937</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>938</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>939</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C3" t="s">
+        <v>923</v>
+      </c>
+      <c r="D3" t="s">
+        <v>924</v>
+      </c>
+      <c r="E3" t="s">
+        <v>925</v>
+      </c>
+      <c r="F3" t="s">
+        <v>926</v>
+      </c>
+      <c r="G3" t="s">
+        <v>927</v>
+      </c>
+      <c r="H3" t="s">
+        <v>928</v>
+      </c>
+      <c r="I3" t="s">
+        <v>929</v>
+      </c>
+      <c r="J3" t="s">
+        <v>930</v>
+      </c>
+      <c r="K3" t="s">
+        <v>931</v>
+      </c>
+      <c r="L3" t="s">
+        <v>932</v>
+      </c>
+      <c r="M3" t="s">
+        <v>933</v>
+      </c>
+      <c r="N3" t="s">
+        <v>934</v>
+      </c>
+      <c r="O3" t="s">
+        <v>935</v>
+      </c>
+      <c r="P3" t="s">
+        <v>936</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>937</v>
+      </c>
+      <c r="R3" t="s">
+        <v>938</v>
+      </c>
+      <c r="S3" t="s">
+        <v>939</v>
+      </c>
+      <c r="T3" t="s">
+        <v>940</v>
+      </c>
+      <c r="U3" t="s">
         <v>941</v>
       </c>
-      <c r="B3" t="s">
+      <c r="V3" t="s">
         <v>942</v>
       </c>
-      <c r="C3" t="s">
+      <c r="W3" t="s">
         <v>943</v>
       </c>
-      <c r="D3" t="s">
+      <c r="X3" t="s">
         <v>944</v>
       </c>
-      <c r="E3" t="s">
+      <c r="Y3" t="s">
         <v>945</v>
       </c>
-      <c r="F3" t="s">
+      <c r="Z3" t="s">
         <v>946</v>
       </c>
-      <c r="G3" t="s">
+      <c r="AA3" t="s">
         <v>947</v>
       </c>
-      <c r="H3" t="s">
+      <c r="AB3" t="s">
         <v>948</v>
       </c>
-      <c r="I3" t="s">
+      <c r="AC3" t="s">
         <v>949</v>
       </c>
-      <c r="J3" t="s">
+      <c r="AD3" t="s">
         <v>950</v>
       </c>
-      <c r="K3" t="s">
+      <c r="AE3" t="s">
         <v>951</v>
       </c>
-      <c r="L3" t="s">
+      <c r="AF3" t="s">
         <v>952</v>
       </c>
-      <c r="M3" t="s">
+      <c r="AG3" t="s">
         <v>953</v>
       </c>
-      <c r="N3" t="s">
+      <c r="AH3" t="s">
         <v>954</v>
       </c>
-      <c r="O3" t="s">
+      <c r="AI3" t="s">
         <v>955</v>
       </c>
-      <c r="P3" t="s">
+      <c r="AJ3" t="s">
         <v>956</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="AK3" t="s">
         <v>957</v>
-      </c>
-      <c r="R3" t="s">
-        <v>958</v>
-      </c>
-      <c r="S3" t="s">
-        <v>959</v>
-      </c>
-      <c r="T3" t="s">
-        <v>960</v>
-      </c>
-      <c r="U3" t="s">
-        <v>961</v>
-      </c>
-      <c r="V3" t="s">
-        <v>962</v>
-      </c>
-      <c r="W3" t="s">
-        <v>963</v>
-      </c>
-      <c r="X3" t="s">
-        <v>964</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>965</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>966</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>967</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>968</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>969</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>970</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>971</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>972</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>973</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>974</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>975</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>976</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:37">
       <c r="A4" s="6">
-        <v>44046</v>
+        <v>44075</v>
       </c>
       <c r="B4" s="7">
-        <v>1.6661999999999999</v>
+        <v>2.1101999999999999</v>
       </c>
       <c r="C4" s="7">
-        <v>1.9923</v>
+        <v>2.1947999999999999</v>
       </c>
       <c r="D4" s="7">
-        <v>1.9415</v>
+        <v>2.2347999999999999</v>
       </c>
       <c r="E4" s="7">
-        <v>2.0836000000000001</v>
+        <v>2.5198999999999998</v>
       </c>
       <c r="F4" s="7">
-        <v>2.1381000000000001</v>
+        <v>2.5167999999999999</v>
       </c>
       <c r="G4" s="7">
-        <v>2.1564999999999999</v>
+        <v>2.5203000000000002</v>
       </c>
       <c r="H4" s="7">
-        <v>2.4996</v>
+        <v>2.7885</v>
       </c>
       <c r="I4" s="7">
-        <v>2.5442999999999998</v>
+        <v>2.9220000000000002</v>
       </c>
       <c r="J4" s="7">
-        <v>2.6053000000000002</v>
+        <v>2.9533</v>
       </c>
       <c r="K4" s="7">
-        <v>2.6844999999999999</v>
+        <v>2.9811000000000001</v>
       </c>
       <c r="L4" s="7">
-        <v>2.8885000000000001</v>
+        <v>3.1021999999999998</v>
       </c>
       <c r="M4" s="7">
-        <v>2.9895999999999998</v>
+        <v>3.1528</v>
       </c>
       <c r="N4" s="7">
-        <v>2.9746000000000001</v>
+        <v>3.1131000000000002</v>
       </c>
       <c r="O4" s="7">
-        <v>2.9529999999999998</v>
+        <v>3.0613000000000001</v>
       </c>
       <c r="P4" s="7">
-        <v>2.9466000000000001</v>
+        <v>3.0478000000000001</v>
       </c>
       <c r="Q4" s="7">
-        <v>3.4216000000000002</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="R4" s="7">
-        <v>3.5430999999999999</v>
+        <v>3.6265000000000001</v>
       </c>
       <c r="S4" s="7">
-        <v>3.6945000000000001</v>
+        <v>3.7603</v>
       </c>
       <c r="T4" s="7">
-        <v>1.6896</v>
+        <v>2.1419000000000001</v>
       </c>
       <c r="U4" s="7">
-        <v>2.0024999999999999</v>
+        <v>2.2397</v>
       </c>
       <c r="V4" s="7">
-        <v>2.3552</v>
+        <v>2.4998</v>
       </c>
       <c r="W4" s="7">
-        <v>2.4390000000000001</v>
+        <v>2.6989000000000001</v>
       </c>
       <c r="X4" s="7">
-        <v>2.6387999999999998</v>
+        <v>2.7134999999999998</v>
       </c>
       <c r="Y4" s="7">
-        <v>2.6764999999999999</v>
+        <v>2.8231999999999999</v>
       </c>
       <c r="Z4" s="7">
-        <v>2.9144000000000001</v>
+        <v>3.1474000000000002</v>
       </c>
       <c r="AA4" s="7">
-        <v>3.0844999999999998</v>
+        <v>3.2764000000000002</v>
       </c>
       <c r="AB4" s="7">
-        <v>3.2700999999999998</v>
+        <v>3.4096000000000002</v>
       </c>
       <c r="AC4" s="7">
-        <v>3.2715999999999998</v>
+        <v>3.4910999999999999</v>
       </c>
       <c r="AD4" s="7">
-        <v>3.4780000000000002</v>
+        <v>3.5179999999999998</v>
       </c>
       <c r="AE4" s="7">
-        <v>3.4620000000000002</v>
+        <v>3.4647000000000001</v>
       </c>
       <c r="AF4" s="7">
-        <v>3.6335999999999999</v>
+        <v>3.6406999999999998</v>
       </c>
       <c r="AG4" s="7">
-        <v>3.6499000000000001</v>
+        <v>3.7299000000000002</v>
       </c>
       <c r="AH4" s="7">
-        <v>3.4679000000000002</v>
+        <v>3.6257000000000001</v>
       </c>
       <c r="AI4" s="7">
-        <v>3.8317999999999999</v>
+        <v>3.9003999999999999</v>
       </c>
       <c r="AJ4" s="7">
-        <v>3.9390000000000001</v>
+        <v>3.9910999999999999</v>
       </c>
       <c r="AK4" s="7">
-        <v>4.1108000000000002</v>
+        <v>4.1765999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="6">
-        <v>44047</v>
+        <v>44076</v>
       </c>
       <c r="B5" s="7">
-        <v>1.7412000000000001</v>
+        <v>2.0867</v>
       </c>
       <c r="C5" s="7">
-        <v>2.0323000000000002</v>
+        <v>2.2048000000000001</v>
       </c>
       <c r="D5" s="7">
-        <v>2.0142000000000002</v>
+        <v>2.2755000000000001</v>
       </c>
       <c r="E5" s="7">
-        <v>2.1236000000000002</v>
+        <v>2.5358999999999998</v>
       </c>
       <c r="F5" s="7">
-        <v>2.1682000000000001</v>
+        <v>2.5528</v>
       </c>
       <c r="G5" s="7">
-        <v>2.1745999999999999</v>
+        <v>2.5562999999999998</v>
       </c>
       <c r="H5" s="7">
-        <v>2.5272999999999999</v>
+        <v>2.8445999999999998</v>
       </c>
       <c r="I5" s="7">
-        <v>2.5867</v>
+        <v>2.9641000000000002</v>
       </c>
       <c r="J5" s="7">
-        <v>2.6396000000000002</v>
+        <v>3.0087999999999999</v>
       </c>
       <c r="K5" s="7">
-        <v>2.7006999999999999</v>
+        <v>3.0526</v>
       </c>
       <c r="L5" s="7">
-        <v>2.8900999999999999</v>
+        <v>3.1635</v>
       </c>
       <c r="M5" s="7">
-        <v>2.9845000000000002</v>
+        <v>3.2054</v>
       </c>
       <c r="N5" s="7">
-        <v>2.9678</v>
+        <v>3.1663999999999999</v>
       </c>
       <c r="O5" s="7">
-        <v>2.9438</v>
+        <v>3.1158000000000001</v>
       </c>
       <c r="P5" s="7">
-        <v>2.9365000000000001</v>
+        <v>3.1027</v>
       </c>
       <c r="Q5" s="7">
-        <v>3.4165999999999999</v>
+        <v>3.5428999999999999</v>
       </c>
       <c r="R5" s="7">
-        <v>3.5381</v>
+        <v>3.6644000000000001</v>
       </c>
       <c r="S5" s="7">
-        <v>3.6945000000000001</v>
+        <v>3.7812000000000001</v>
       </c>
       <c r="T5" s="7">
-        <v>1.7645999999999999</v>
+        <v>2.1183000000000001</v>
       </c>
       <c r="U5" s="7">
-        <v>2.0425</v>
+        <v>2.2496999999999998</v>
       </c>
       <c r="V5" s="7">
-        <v>2.3656000000000001</v>
+        <v>2.5047999999999999</v>
       </c>
       <c r="W5" s="7">
-        <v>2.4198</v>
+        <v>2.6989000000000001</v>
       </c>
       <c r="X5" s="7">
-        <v>2.6314000000000002</v>
+        <v>2.7423999999999999</v>
       </c>
       <c r="Y5" s="7">
-        <v>2.6726000000000001</v>
+        <v>2.8323999999999998</v>
       </c>
       <c r="Z5" s="7">
-        <v>2.9119000000000002</v>
+        <v>3.1692999999999998</v>
       </c>
       <c r="AA5" s="7">
-        <v>3.0748000000000002</v>
+        <v>3.3075000000000001</v>
       </c>
       <c r="AB5" s="7">
-        <v>3.27</v>
+        <v>3.4525000000000001</v>
       </c>
       <c r="AC5" s="7">
-        <v>3.2713999999999999</v>
+        <v>3.5245000000000002</v>
       </c>
       <c r="AD5" s="7">
-        <v>3.4559000000000002</v>
+        <v>3.5455999999999999</v>
       </c>
       <c r="AE5" s="7">
-        <v>3.4420999999999999</v>
+        <v>3.4864999999999999</v>
       </c>
       <c r="AF5" s="7">
-        <v>3.6137999999999999</v>
+        <v>3.6997</v>
       </c>
       <c r="AG5" s="7">
-        <v>3.6299000000000001</v>
+        <v>3.7648999999999999</v>
       </c>
       <c r="AH5" s="7">
-        <v>3.4704000000000002</v>
+        <v>3.6705999999999999</v>
       </c>
       <c r="AI5" s="7">
-        <v>3.8209</v>
+        <v>3.9112</v>
       </c>
       <c r="AJ5" s="7">
-        <v>3.9340000000000002</v>
+        <v>4.0011999999999999</v>
       </c>
       <c r="AK5" s="7">
-        <v>4.1108000000000002</v>
+        <v>4.1974999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="6">
-        <v>44048</v>
+        <v>44077</v>
       </c>
       <c r="B6" s="7">
-        <v>1.6693</v>
+        <v>2.0891000000000002</v>
       </c>
       <c r="C6" s="7">
-        <v>2.0583999999999998</v>
+        <v>2.2071999999999998</v>
       </c>
       <c r="D6" s="7">
-        <v>2.0499999999999998</v>
+        <v>2.2778999999999998</v>
       </c>
       <c r="E6" s="7">
-        <v>2.1949000000000001</v>
+        <v>2.5358999999999998</v>
       </c>
       <c r="F6" s="7">
-        <v>2.2282000000000002</v>
+        <v>2.5528</v>
       </c>
       <c r="G6" s="7">
-        <v>2.2288000000000001</v>
+        <v>2.5712000000000002</v>
       </c>
       <c r="H6" s="7">
-        <v>2.5693999999999999</v>
+        <v>2.8744999999999998</v>
       </c>
       <c r="I6" s="7">
-        <v>2.6619999999999999</v>
+        <v>2.9584999999999999</v>
       </c>
       <c r="J6" s="7">
-        <v>2.7179000000000002</v>
+        <v>3.0207999999999999</v>
       </c>
       <c r="K6" s="7">
-        <v>2.7637999999999998</v>
+        <v>3.0842000000000001</v>
       </c>
       <c r="L6" s="7">
-        <v>2.9333</v>
+        <v>3.1646000000000001</v>
       </c>
       <c r="M6" s="7">
-        <v>3.0169000000000001</v>
+        <v>3.1905999999999999</v>
       </c>
       <c r="N6" s="7">
-        <v>2.9967999999999999</v>
+        <v>3.1579000000000002</v>
       </c>
       <c r="O6" s="7">
-        <v>2.9681000000000002</v>
+        <v>3.1156000000000001</v>
       </c>
       <c r="P6" s="7">
-        <v>2.9592000000000001</v>
+        <v>3.1051000000000002</v>
       </c>
       <c r="Q6" s="7">
-        <v>3.4396</v>
+        <v>3.5442</v>
       </c>
       <c r="R6" s="7">
-        <v>3.5611000000000002</v>
+        <v>3.6657000000000002</v>
       </c>
       <c r="S6" s="7">
-        <v>3.718</v>
+        <v>3.7814000000000001</v>
       </c>
       <c r="T6" s="7">
-        <v>1.6927000000000001</v>
+        <v>2.1206999999999998</v>
       </c>
       <c r="U6" s="7">
-        <v>2.0684999999999998</v>
+        <v>2.2521</v>
       </c>
       <c r="V6" s="7">
-        <v>2.4014000000000002</v>
+        <v>2.5259999999999998</v>
       </c>
       <c r="W6" s="7">
-        <v>2.4169</v>
+        <v>2.7389000000000001</v>
       </c>
       <c r="X6" s="7">
-        <v>2.6265999999999998</v>
+        <v>2.7761999999999998</v>
       </c>
       <c r="Y6" s="7">
-        <v>2.6659000000000002</v>
+        <v>2.8443000000000001</v>
       </c>
       <c r="Z6" s="7">
-        <v>2.9043000000000001</v>
+        <v>3.1979000000000002</v>
       </c>
       <c r="AA6" s="7">
-        <v>3.0819000000000001</v>
+        <v>3.3372999999999999</v>
       </c>
       <c r="AB6" s="7">
-        <v>3.2825000000000002</v>
+        <v>3.4621</v>
       </c>
       <c r="AC6" s="7">
-        <v>3.2913999999999999</v>
+        <v>3.5301</v>
       </c>
       <c r="AD6" s="7">
-        <v>3.4390000000000001</v>
+        <v>3.5573999999999999</v>
       </c>
       <c r="AE6" s="7">
-        <v>3.4249000000000001</v>
+        <v>3.4983</v>
       </c>
       <c r="AF6" s="7">
-        <v>3.6158000000000001</v>
+        <v>3.7002999999999999</v>
       </c>
       <c r="AG6" s="7">
-        <v>3.6398999999999999</v>
+        <v>3.76</v>
       </c>
       <c r="AH6" s="7">
-        <v>3.4853000000000001</v>
+        <v>3.6682000000000001</v>
       </c>
       <c r="AI6" s="7">
-        <v>3.82</v>
+        <v>3.9230999999999998</v>
       </c>
       <c r="AJ6" s="7">
-        <v>3.9401000000000002</v>
+        <v>4.0008999999999997</v>
       </c>
       <c r="AK6" s="7">
-        <v>4.1342999999999996</v>
+        <v>4.1976000000000004</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1716CEE8-634E-45DC-9900-B20BC27102F6}">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D3" t="s">
+        <v>959</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D4" t="s">
+        <v>961</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D5" t="s">
+        <v>963</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>966</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D6" t="s">
+        <v>965</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>968</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D7" t="s">
+        <v>967</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>969</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>971</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D9" t="s">
+        <v>970</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>973</v>
+      </c>
+      <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D10" t="s">
+        <v>972</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>975</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D11" t="s">
+        <v>974</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>977</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D12" t="s">
+        <v>976</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>979</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D13" t="s">
+        <v>978</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>981</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D14" t="s">
+        <v>980</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>983</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D15" t="s">
+        <v>982</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>985</v>
+      </c>
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D16" t="s">
+        <v>984</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>987</v>
+      </c>
+      <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D17" t="s">
+        <v>986</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>989</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D18" t="s">
+        <v>988</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>991</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D19" t="s">
+        <v>990</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>993</v>
+      </c>
+      <c r="B20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D20" t="s">
+        <v>992</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>995</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D21" t="s">
+        <v>994</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>997</v>
+      </c>
+      <c r="B22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D22" t="s">
+        <v>996</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>999</v>
+      </c>
+      <c r="B23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D23" t="s">
+        <v>998</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D28" t="s">
+        <v>410</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D32" t="s">
+        <v>741</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D33" t="s">
+        <v>737</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D34" t="s">
+        <v>738</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D43" t="s">
+        <v>391</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B45" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D48" t="s">
+        <v>457</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D50" t="s">
+        <v>459</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D54" t="s">
+        <v>458</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28B1FED-7130-4898-86D5-D7FCCB887641}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B3" t="s">
+        <v>726</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>743</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D17" t="s">
+        <v>744</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>745</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D19" t="s">
+        <v>757</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>746</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D20" t="s">
+        <v>758</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>747</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D21" t="s">
+        <v>759</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>748</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D22" t="s">
+        <v>760</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>749</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D23" t="s">
+        <v>761</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>750</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D24" t="s">
+        <v>762</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>751</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D25" t="s">
+        <v>763</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>752</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D27" t="s">
+        <v>764</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>754</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D29" t="s">
+        <v>766</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>755</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D30" t="s">
+        <v>767</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>771</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D32" t="s">
+        <v>772</v>
+      </c>
+      <c r="E32" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>756</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D34" t="s">
+        <v>768</v>
+      </c>
+      <c r="E34" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>753</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D35" t="s">
+        <v>765</v>
+      </c>
+      <c r="E35" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E36" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>769</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D37" t="s">
+        <v>770</v>
+      </c>
+      <c r="E37" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>733</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D38" t="s">
+        <v>739</v>
+      </c>
+      <c r="E38" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E39" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>734</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D41" t="s">
+        <v>740</v>
+      </c>
+      <c r="E41" t="s">
+        <v>773</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -24947,7 +28888,7 @@
         <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
@@ -25590,7 +29531,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B40" t="s">
         <v>736</v>
@@ -25655,7 +29596,7 @@
         <v>165</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -25672,7 +29613,7 @@
         <v>165</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -25689,7 +29630,7 @@
         <v>165</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -25706,7 +29647,7 @@
         <v>165</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -25723,7 +29664,7 @@
         <v>165</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -25740,7 +29681,7 @@
         <v>165</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -25757,7 +29698,7 @@
         <v>165</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -25774,7 +29715,7 @@
         <v>165</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -25791,7 +29732,7 @@
         <v>165</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -25808,7 +29749,7 @@
         <v>165</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -25825,7 +29766,7 @@
         <v>165</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -25842,7 +29783,7 @@
         <v>165</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -25859,7 +29800,7 @@
         <v>165</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15">
@@ -25876,7 +29817,7 @@
         <v>729</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15">
@@ -25893,7 +29834,7 @@
         <v>729</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15">
@@ -25910,7 +29851,7 @@
         <v>729</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15">
@@ -25927,7 +29868,7 @@
         <v>729</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15">
@@ -25944,7 +29885,7 @@
         <v>729</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -27370,467 +31311,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9DD673-A626-4111-AD88-C442FBCBAABA}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="37.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>751</v>
-      </c>
-      <c r="B2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>726</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>752</v>
-      </c>
-      <c r="B3" t="s">
-        <v>749</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>750</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>756</v>
-      </c>
-      <c r="B4" t="s">
-        <v>753</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>757</v>
-      </c>
-      <c r="B5" t="s">
-        <v>754</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>758</v>
-      </c>
-      <c r="B6" t="s">
-        <v>755</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>773</v>
-      </c>
-      <c r="B7" t="s">
-        <v>759</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>747</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>774</v>
-      </c>
-      <c r="B8" t="s">
-        <v>760</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" t="s">
-        <v>761</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>776</v>
-      </c>
-      <c r="B10" t="s">
-        <v>762</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" t="s">
-        <v>763</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>778</v>
-      </c>
-      <c r="B12" t="s">
-        <v>764</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>779</v>
-      </c>
-      <c r="B13" t="s">
-        <v>765</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>780</v>
-      </c>
-      <c r="B14" t="s">
-        <v>766</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>781</v>
-      </c>
-      <c r="B15" t="s">
-        <v>767</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>782</v>
-      </c>
-      <c r="B16" t="s">
-        <v>768</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>783</v>
-      </c>
-      <c r="B17" t="s">
-        <v>769</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>784</v>
-      </c>
-      <c r="B18" t="s">
-        <v>770</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>747</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>785</v>
-      </c>
-      <c r="B19" t="s">
-        <v>771</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" t="s">
-        <v>772</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>789</v>
-      </c>
-      <c r="B21" t="s">
-        <v>787</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>747</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>790</v>
-      </c>
-      <c r="B22" t="s">
-        <v>788</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>747</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>792</v>
-      </c>
-      <c r="B23" t="s">
-        <v>791</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>745</v>
-      </c>
-      <c r="B24" t="s">
-        <v>737</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>746</v>
-      </c>
-      <c r="B25" t="s">
-        <v>738</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>742</v>
-      </c>
-      <c r="B26" t="s">
-        <v>734</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC544325-D385-4D25-AEED-C94CD6E926BC}">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -28444,7 +31924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA8306C-39F8-479A-A7D9-82E04EC63560}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -28665,4 +32145,533 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3B1490-7B8E-494A-9206-552B0EBA643A}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="38.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>445</v>
+      </c>
+      <c r="B19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>446</v>
+      </c>
+      <c r="B20" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>447</v>
+      </c>
+      <c r="B21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>448</v>
+      </c>
+      <c r="B22" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B23" t="s">
+        <v>431</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>450</v>
+      </c>
+      <c r="B24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>451</v>
+      </c>
+      <c r="B25" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>452</v>
+      </c>
+      <c r="B26" t="s">
+        <v>434</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>737</v>
+      </c>
+      <c r="B27" t="s">
+        <v>731</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>738</v>
+      </c>
+      <c r="B28" t="s">
+        <v>732</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>739</v>
+      </c>
+      <c r="B29" t="s">
+        <v>733</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>741</v>
+      </c>
+      <c r="B30" t="s">
+        <v>735</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>